--- a/Annotations/Old/Emma.xlsx
+++ b/Annotations/Old/Emma.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="emma" sheetId="1" r:id="rId1"/>
@@ -1631,15 +1631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P224"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H226" sqref="H226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="47.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.44140625" style="2" customWidth="1"/>
@@ -1701,7 +1701,7 @@
     <row r="2" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.27299142611794813</v>
+        <v>8.9016083900994469E-2</v>
       </c>
       <c r="B2" s="2">
         <v>124</v>
@@ -1728,7 +1728,7 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47251144953355517</v>
+        <v>0.49161521052547863</v>
       </c>
       <c r="B3" s="2">
         <v>105</v>
@@ -1749,7 +1749,7 @@
     <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21643411055196082</v>
+        <v>0.83632828503633416</v>
       </c>
       <c r="B4" s="2">
         <v>57</v>
@@ -1776,7 +1776,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1812314607883676</v>
+        <v>0.20770513245918276</v>
       </c>
       <c r="B5" s="2">
         <v>131</v>
@@ -1800,7 +1800,7 @@
     <row r="6" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76235531499370479</v>
+        <v>0.40068685678713822</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1830,7 +1830,7 @@
     <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64664508057165393</v>
+        <v>0.47915225708343911</v>
       </c>
       <c r="B7" s="2">
         <v>129</v>
@@ -1851,7 +1851,7 @@
     <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14637465427582619</v>
+        <v>0.69973079975386743</v>
       </c>
       <c r="B8" s="2">
         <v>202</v>
@@ -1875,7 +1875,7 @@
     <row r="9" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26273177062281949</v>
+        <v>0.88727812100571246</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -1899,7 +1899,7 @@
     <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20009303318304017</v>
+        <v>0.38591577311566672</v>
       </c>
       <c r="B10" s="2">
         <v>187</v>
@@ -1923,7 +1923,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36319679713927033</v>
+        <v>0.21745003366499638</v>
       </c>
       <c r="B11" s="2">
         <v>41</v>
@@ -1944,7 +1944,7 @@
     <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89917862955577599</v>
+        <v>0.99188670581647598</v>
       </c>
       <c r="B12" s="2">
         <v>205</v>
@@ -1968,7 +1968,7 @@
     <row r="13" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59292573348352717</v>
+        <v>0.91729865400064647</v>
       </c>
       <c r="B13" s="2">
         <v>137</v>
@@ -1992,7 +1992,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80341110436834995</v>
+        <v>0.83407464951641341</v>
       </c>
       <c r="B14" s="2">
         <v>128</v>
@@ -2019,7 +2019,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42276068760426955</v>
+        <v>0.10638731106816557</v>
       </c>
       <c r="B15" s="2">
         <v>107</v>
@@ -2049,7 +2049,7 @@
     <row r="16" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80009752103634468</v>
+        <v>0.53796353438393563</v>
       </c>
       <c r="B16" s="2">
         <v>181</v>
@@ -2073,7 +2073,7 @@
     <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8238249559718467E-2</v>
+        <v>0.4676213271362506</v>
       </c>
       <c r="B17" s="2">
         <v>111</v>
@@ -2097,7 +2097,7 @@
     <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91405468152381797</v>
+        <v>0.99252805058704263</v>
       </c>
       <c r="B18" s="2">
         <v>167</v>
@@ -2118,7 +2118,7 @@
     <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42983028405514667</v>
+        <v>4.2506473348292273E-2</v>
       </c>
       <c r="B19" s="2">
         <v>198</v>
@@ -2142,7 +2142,7 @@
     <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92835343969691297</v>
+        <v>0.58241970669509469</v>
       </c>
       <c r="B20" s="2">
         <v>38</v>
@@ -2169,7 +2169,7 @@
     <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48293018230630214</v>
+        <v>0.15666414190665245</v>
       </c>
       <c r="B21" s="2">
         <v>118</v>
@@ -2193,7 +2193,7 @@
     <row r="22" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34521744124427545</v>
+        <v>4.7037974620383283E-2</v>
       </c>
       <c r="B22" s="2">
         <v>172</v>
@@ -2217,7 +2217,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84938413178218197</v>
+        <v>0.77514594211138144</v>
       </c>
       <c r="B23" s="2">
         <v>48</v>
@@ -2241,7 +2241,7 @@
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94463729273602615</v>
+        <v>0.77535937994223747</v>
       </c>
       <c r="B24" s="2">
         <v>45</v>
@@ -2262,7 +2262,7 @@
     <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56144135196334632</v>
+        <v>0.87281763749251962</v>
       </c>
       <c r="B25" s="2">
         <v>192</v>
@@ -2286,7 +2286,7 @@
     <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3700237774179778E-2</v>
+        <v>8.7389523592978691E-2</v>
       </c>
       <c r="B26" s="2">
         <v>218</v>
@@ -2310,7 +2310,7 @@
     <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72684343861124012</v>
+        <v>0.12713110915773573</v>
       </c>
       <c r="B27" s="2">
         <v>16</v>
@@ -2334,7 +2334,7 @@
     <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2806190315202199E-3</v>
+        <v>0.64833932593619481</v>
       </c>
       <c r="B28" s="2">
         <v>68</v>
@@ -2358,7 +2358,7 @@
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40916647156005403</v>
+        <v>0.37002152004493971</v>
       </c>
       <c r="B29" s="2">
         <v>185</v>
@@ -2382,7 +2382,7 @@
     <row r="30" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29139786307050464</v>
+        <v>0.7709175461306248</v>
       </c>
       <c r="B30" s="2">
         <v>63</v>
@@ -2412,7 +2412,7 @@
     <row r="31" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68895342526117997</v>
+        <v>0.60407653460545807</v>
       </c>
       <c r="B31" s="2">
         <v>177</v>
@@ -2439,7 +2439,7 @@
     <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84189829940148353</v>
+        <v>0.77351631853647085</v>
       </c>
       <c r="B32" s="2">
         <v>51</v>
@@ -2460,7 +2460,7 @@
     <row r="33" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3789488914397285E-2</v>
+        <v>0.8906932307829265</v>
       </c>
       <c r="B33" s="2">
         <v>188</v>
@@ -2487,7 +2487,7 @@
     <row r="34" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53746961209865918</v>
+        <v>0.4686280207176291</v>
       </c>
       <c r="B34" s="2">
         <v>222</v>
@@ -2511,7 +2511,7 @@
     <row r="35" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59189386918017073</v>
+        <v>0.86785058754165245</v>
       </c>
       <c r="B35" s="2">
         <v>208</v>
@@ -2532,7 +2532,7 @@
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61289565437843407</v>
+        <v>0.7794887791955224</v>
       </c>
       <c r="B36" s="2">
         <v>46</v>
@@ -2559,7 +2559,7 @@
     <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97671283464484759</v>
+        <v>0.23265992264402102</v>
       </c>
       <c r="B37" s="2">
         <v>197</v>
@@ -2583,7 +2583,7 @@
     <row r="38" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96776468007237171</v>
+        <v>0.75360459027950966</v>
       </c>
       <c r="B38" s="2">
         <v>31</v>
@@ -2604,7 +2604,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27902548150629913</v>
+        <v>0.45620444382134351</v>
       </c>
       <c r="B39" s="2">
         <v>92</v>
@@ -2628,7 +2628,7 @@
     <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43342200518983565</v>
+        <v>0.24438096506482077</v>
       </c>
       <c r="B40" s="2">
         <v>113</v>
@@ -2655,7 +2655,7 @@
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28896812967098839</v>
+        <v>0.71550931540413998</v>
       </c>
       <c r="B41" s="2">
         <v>43</v>
@@ -2676,7 +2676,7 @@
     <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78920838848033503</v>
+        <v>0.64403266345347188</v>
       </c>
       <c r="B42" s="2">
         <v>159</v>
@@ -2700,7 +2700,7 @@
     <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81577979468334505</v>
+        <v>0.55472467941010728</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -2724,7 +2724,7 @@
     <row r="44" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6683548207262051E-2</v>
+        <v>8.2600335845696371E-2</v>
       </c>
       <c r="B44" s="2">
         <v>70</v>
@@ -2748,7 +2748,7 @@
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89538544118148555</v>
+        <v>5.1936708267625087E-2</v>
       </c>
       <c r="B45" s="2">
         <v>86</v>
@@ -2772,7 +2772,7 @@
     <row r="46" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83760453182973438</v>
+        <v>0.95752754993786826</v>
       </c>
       <c r="B46" s="2">
         <v>121</v>
@@ -2796,7 +2796,7 @@
     <row r="47" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57763103982255593</v>
+        <v>0.90455419659528202</v>
       </c>
       <c r="B47" s="2">
         <v>183</v>
@@ -2820,7 +2820,7 @@
     <row r="48" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21907253090715517</v>
+        <v>0.88315527863308563</v>
       </c>
       <c r="B48" s="2">
         <v>15</v>
@@ -2847,7 +2847,7 @@
     <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5895900122418305</v>
+        <v>0.79273983565001294</v>
       </c>
       <c r="B49" s="2">
         <v>73</v>
@@ -2874,7 +2874,7 @@
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91985605170481755</v>
+        <v>0.72823736892586111</v>
       </c>
       <c r="B50" s="2">
         <v>102</v>
@@ -2898,7 +2898,7 @@
     <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98654467675866186</v>
+        <v>0.81893506422178119</v>
       </c>
       <c r="B51" s="2">
         <v>99</v>
@@ -2925,7 +2925,7 @@
     <row r="52" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24903470588962873</v>
+        <v>0.67936272944202991</v>
       </c>
       <c r="B52" s="2">
         <v>220</v>
@@ -2952,7 +2952,7 @@
     <row r="53" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99800399412021046</v>
+        <v>0.34978771962012012</v>
       </c>
       <c r="B53" s="2">
         <v>4</v>
@@ -2973,7 +2973,7 @@
     <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65990152598653951</v>
+        <v>0.51537701882523923</v>
       </c>
       <c r="B54" s="2">
         <v>161</v>
@@ -2997,7 +2997,7 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63501837209397471</v>
+        <v>0.14423237133381495</v>
       </c>
       <c r="B55" s="2">
         <v>49</v>
@@ -3021,7 +3021,7 @@
     <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92318809080131392</v>
+        <v>1.2174186852609847E-2</v>
       </c>
       <c r="B56" s="2">
         <v>98</v>
@@ -3045,7 +3045,7 @@
     <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97847244406907252</v>
+        <v>0.26521714496896354</v>
       </c>
       <c r="B57" s="2">
         <v>206</v>
@@ -3072,7 +3072,7 @@
     <row r="58" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12644376426271109</v>
+        <v>0.95814310360505295</v>
       </c>
       <c r="B58" s="2">
         <v>184</v>
@@ -3093,7 +3093,7 @@
     <row r="59" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76412804956765779</v>
+        <v>0.99906548900448222</v>
       </c>
       <c r="B59" s="2">
         <v>53</v>
@@ -3120,7 +3120,7 @@
     <row r="60" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21735837172739436</v>
+        <v>0.62323247251940517</v>
       </c>
       <c r="B60" s="2">
         <v>173</v>
@@ -3144,7 +3144,7 @@
     <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98430559649141103</v>
+        <v>0.19916912689358368</v>
       </c>
       <c r="B61" s="2">
         <v>52</v>
@@ -3168,7 +3168,7 @@
     <row r="62" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29541505064390272</v>
+        <v>0.36376339161770277</v>
       </c>
       <c r="B62" s="2">
         <v>216</v>
@@ -3195,7 +3195,7 @@
     <row r="63" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59010552971082064</v>
+        <v>0.81611539858668669</v>
       </c>
       <c r="B63" s="2">
         <v>175</v>
@@ -3225,7 +3225,7 @@
     <row r="64" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27821048310165164</v>
+        <v>0.25628731339165678</v>
       </c>
       <c r="B64" s="2">
         <v>135</v>
@@ -3249,7 +3249,7 @@
     <row r="65" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31977902885331766</v>
+        <v>0.57270524166406411</v>
       </c>
       <c r="B65" s="2">
         <v>180</v>
@@ -3276,7 +3276,7 @@
     <row r="66" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.82909779503677394</v>
+        <v>0.13758364990098426</v>
       </c>
       <c r="B66" s="2">
         <v>153</v>
@@ -3303,7 +3303,7 @@
     <row r="67" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3504004693361561</v>
+        <v>0.79750944834370363</v>
       </c>
       <c r="B67" s="2">
         <v>109</v>
@@ -3333,7 +3333,7 @@
     <row r="68" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21464958359286213</v>
+        <v>0.97448603855640858</v>
       </c>
       <c r="B68" s="2">
         <v>158</v>
@@ -3360,7 +3360,7 @@
     <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74587967933976029</v>
+        <v>0.95697964879470099</v>
       </c>
       <c r="B69" s="2">
         <v>58</v>
@@ -3384,7 +3384,7 @@
     <row r="70" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14089808433253503</v>
+        <v>0.79505668083819958</v>
       </c>
       <c r="B70" s="2">
         <v>196</v>
@@ -3408,7 +3408,7 @@
     <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25446123316768421</v>
+        <v>0.74792151045946242</v>
       </c>
       <c r="B71" s="2">
         <v>85</v>
@@ -3429,7 +3429,7 @@
     <row r="72" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6043072570603053</v>
+        <v>0.59464616486394173</v>
       </c>
       <c r="B72" s="2">
         <v>156</v>
@@ -3456,7 +3456,7 @@
     <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19784960550292785</v>
+        <v>0.19161908985345966</v>
       </c>
       <c r="B73" s="2">
         <v>76</v>
@@ -3480,7 +3480,7 @@
     <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9953983762686146</v>
+        <v>0.60186505789573619</v>
       </c>
       <c r="B74" s="2">
         <v>169</v>
@@ -3507,7 +3507,7 @@
     <row r="75" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58838207742372783</v>
+        <v>0.28980416710563806</v>
       </c>
       <c r="B75" s="2">
         <v>6</v>
@@ -3531,7 +3531,7 @@
     <row r="76" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13712387898122735</v>
+        <v>0.92717538717676062</v>
       </c>
       <c r="B76" s="2">
         <v>34</v>
@@ -3561,7 +3561,7 @@
     <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48460375143222589</v>
+        <v>0.23213135631691351</v>
       </c>
       <c r="B77" s="2">
         <v>54</v>
@@ -3585,7 +3585,7 @@
     <row r="78" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26124846659492185</v>
+        <v>0.426386411402495</v>
       </c>
       <c r="B78" s="2">
         <v>35</v>
@@ -3612,7 +3612,7 @@
     <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37846839825198664</v>
+        <v>0.65903462570811833</v>
       </c>
       <c r="B79" s="2">
         <v>95</v>
@@ -3642,7 +3642,7 @@
     <row r="80" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9568609398588529</v>
+        <v>7.7676636006891009E-2</v>
       </c>
       <c r="B80" s="2">
         <v>60</v>
@@ -3672,7 +3672,7 @@
     <row r="81" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80436137552086406</v>
+        <v>0.5849611071938976</v>
       </c>
       <c r="B81" s="2">
         <v>108</v>
@@ -3693,7 +3693,7 @@
     <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99454027250768462</v>
+        <v>5.1457561247106431E-2</v>
       </c>
       <c r="B82" s="2">
         <v>126</v>
@@ -3720,7 +3720,7 @@
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3347918557466816E-2</v>
+        <v>0.16415344613997451</v>
       </c>
       <c r="B83" s="2">
         <v>42</v>
@@ -3747,7 +3747,7 @@
     <row r="84" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65198533593249652</v>
+        <v>0.90059444010214662</v>
       </c>
       <c r="B84" s="2">
         <v>193</v>
@@ -3771,7 +3771,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41446697459442372</v>
+        <v>0.31185910387988613</v>
       </c>
       <c r="B85" s="2">
         <v>81</v>
@@ -3795,7 +3795,7 @@
     <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7724363032652084</v>
+        <v>8.5065171315482635E-2</v>
       </c>
       <c r="B86" s="2">
         <v>148</v>
@@ -3819,7 +3819,7 @@
     <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53101994480526049</v>
+        <v>0.45118175373702618</v>
       </c>
       <c r="B87" s="2">
         <v>152</v>
@@ -3846,7 +3846,7 @@
     <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8511695011447914</v>
+        <v>0.36011233408055676</v>
       </c>
       <c r="B88" s="2">
         <v>171</v>
@@ -3867,7 +3867,7 @@
     <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59699740494739895</v>
+        <v>0.81927327635165093</v>
       </c>
       <c r="B89" s="2">
         <v>100</v>
@@ -3894,7 +3894,7 @@
     <row r="90" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14128698189853339</v>
+        <v>0.923979946311413</v>
       </c>
       <c r="B90" s="2">
         <v>87</v>
@@ -3921,7 +3921,7 @@
     <row r="91" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35326482910238211</v>
+        <v>0.7679426482804228</v>
       </c>
       <c r="B91" s="2">
         <v>174</v>
@@ -3948,7 +3948,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85479611590820703</v>
+        <v>0.42654561199959506</v>
       </c>
       <c r="B92" s="2">
         <v>125</v>
@@ -3972,7 +3972,7 @@
     <row r="93" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49920295910179113</v>
+        <v>4.4114418040130943E-2</v>
       </c>
       <c r="B93" s="2">
         <v>163</v>
@@ -3999,7 +3999,7 @@
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5555220548728266E-2</v>
+        <v>0.2185477999073322</v>
       </c>
       <c r="B94" s="2">
         <v>77</v>
@@ -4026,7 +4026,7 @@
     <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57072817834677236</v>
+        <v>0.65137585239490325</v>
       </c>
       <c r="B95" s="2">
         <v>115</v>
@@ -4047,7 +4047,7 @@
     <row r="96" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.710030213406463</v>
+        <v>2.9700411600904641E-2</v>
       </c>
       <c r="B96" s="2">
         <v>75</v>
@@ -4074,7 +4074,7 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24753904765653023</v>
+        <v>0.35869907602315876</v>
       </c>
       <c r="B97" s="2">
         <v>82</v>
@@ -4095,7 +4095,7 @@
     <row r="98" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25139387235842525</v>
+        <v>0.49698514699031882</v>
       </c>
       <c r="B98" s="2">
         <v>72</v>
@@ -4119,7 +4119,7 @@
     <row r="99" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88114812779458285</v>
+        <v>0.15440391059859127</v>
       </c>
       <c r="B99" s="2">
         <v>28</v>
@@ -4140,7 +4140,7 @@
     <row r="100" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73211825619483373</v>
+        <v>0.36316386346260843</v>
       </c>
       <c r="B100" s="2">
         <v>21</v>
@@ -4170,7 +4170,7 @@
     <row r="101" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91332649013344913</v>
+        <v>0.34939077646442063</v>
       </c>
       <c r="B101" s="2">
         <v>36</v>
@@ -4197,7 +4197,7 @@
     <row r="102" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80975958578684037</v>
+        <v>0.95598142258814633</v>
       </c>
       <c r="B102" s="2">
         <v>97</v>
@@ -4218,7 +4218,7 @@
     <row r="103" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78815076213492341</v>
+        <v>0.81052668910248971</v>
       </c>
       <c r="B103" s="2">
         <v>39</v>
@@ -4242,7 +4242,7 @@
     <row r="104" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40331225842971752</v>
+        <v>0.46137174582844731</v>
       </c>
       <c r="B104" s="2">
         <v>141</v>
@@ -4263,7 +4263,7 @@
     <row r="105" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43537176119871945</v>
+        <v>0.21316262612325698</v>
       </c>
       <c r="B105" s="2">
         <v>212</v>
@@ -4287,7 +4287,7 @@
     <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1471184915903232</v>
+        <v>0.8774767789755844</v>
       </c>
       <c r="B106" s="2">
         <v>44</v>
@@ -4308,7 +4308,7 @@
     <row r="107" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22912414001987236</v>
+        <v>0.89583291155957911</v>
       </c>
       <c r="B107" s="2">
         <v>114</v>
@@ -4329,7 +4329,7 @@
     <row r="108" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9626907203525823E-2</v>
+        <v>0.81727194269394299</v>
       </c>
       <c r="B108" s="2">
         <v>61</v>
@@ -4356,7 +4356,7 @@
     <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18727943624822674</v>
+        <v>0.84714979367487919</v>
       </c>
       <c r="B109" s="2">
         <v>104</v>
@@ -4377,7 +4377,7 @@
     <row r="110" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59190771182942992</v>
+        <v>0.52361874593867697</v>
       </c>
       <c r="B110" s="2">
         <v>20</v>
@@ -4401,7 +4401,7 @@
     <row r="111" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40944534453135051</v>
+        <v>0.22285523677721408</v>
       </c>
       <c r="B111" s="2">
         <v>26</v>
@@ -4422,7 +4422,7 @@
     <row r="112" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40238712936362764</v>
+        <v>0.18879319930549543</v>
       </c>
       <c r="B112" s="2">
         <v>195</v>
@@ -4449,7 +4449,7 @@
     <row r="113" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3706901496143532</v>
+        <v>0.96387785151934191</v>
       </c>
       <c r="B113" s="2">
         <v>56</v>
@@ -4476,7 +4476,7 @@
     <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7373734138763729</v>
+        <v>0.74598127885067778</v>
       </c>
       <c r="B114" s="2">
         <v>40</v>
@@ -4500,7 +4500,7 @@
     <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8935098695289088E-2</v>
+        <v>0.16975252071387148</v>
       </c>
       <c r="B115" s="2">
         <v>151</v>
@@ -4521,7 +4521,7 @@
     <row r="116" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22282181397653134</v>
+        <v>0.63088100028029837</v>
       </c>
       <c r="B116" s="2">
         <v>32</v>
@@ -4545,7 +4545,7 @@
     <row r="117" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65044807097833723</v>
+        <v>0.60352930478932121</v>
       </c>
       <c r="B117" s="2">
         <v>23</v>
@@ -4572,7 +4572,7 @@
     <row r="118" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25961508410436462</v>
+        <v>0.1131524286332154</v>
       </c>
       <c r="B118" s="2">
         <v>146</v>
@@ -4596,7 +4596,7 @@
     <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26107884862023945</v>
+        <v>0.13407337504526817</v>
       </c>
       <c r="B119" s="2">
         <v>11</v>
@@ -4623,7 +4623,7 @@
     <row r="120" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16756789036391839</v>
+        <v>0.80863621662952256</v>
       </c>
       <c r="B120" s="2">
         <v>33</v>
@@ -4650,7 +4650,7 @@
     <row r="121" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0282424407796937E-2</v>
+        <v>0.82683462692834642</v>
       </c>
       <c r="B121" s="2">
         <v>176</v>
@@ -4671,7 +4671,7 @@
     <row r="122" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0803947955565891E-2</v>
+        <v>0.15196475792282182</v>
       </c>
       <c r="B122" s="2">
         <v>143</v>
@@ -4692,7 +4692,7 @@
     <row r="123" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32453450260122441</v>
+        <v>0.41362051900070462</v>
       </c>
       <c r="B123" s="2">
         <v>189</v>
@@ -4719,7 +4719,7 @@
     <row r="124" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48727861953730633</v>
+        <v>0.61812936121580053</v>
       </c>
       <c r="B124" s="2">
         <v>117</v>
@@ -4749,7 +4749,7 @@
     <row r="125" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40093536406473407</v>
+        <v>0.34060106123600842</v>
       </c>
       <c r="B125" s="2">
         <v>154</v>
@@ -4776,7 +4776,7 @@
     <row r="126" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37995366800760777</v>
+        <v>0.95212546078142934</v>
       </c>
       <c r="B126" s="2">
         <v>22</v>
@@ -4803,7 +4803,7 @@
     <row r="127" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59159428110098311</v>
+        <v>0.28346119709507744</v>
       </c>
       <c r="B127" s="2">
         <v>67</v>
@@ -4830,7 +4830,7 @@
     <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92430660940715159</v>
+        <v>0.20338931247768866</v>
       </c>
       <c r="B128" s="2">
         <v>50</v>
@@ -4851,7 +4851,7 @@
     <row r="129" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34596465446353253</v>
+        <v>0.61148408169404878</v>
       </c>
       <c r="B129" s="2">
         <v>59</v>
@@ -4878,7 +4878,7 @@
     <row r="130" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.3181449622461483</v>
+        <v>0.39320940153326889</v>
       </c>
       <c r="B130" s="2">
         <v>157</v>
@@ -4902,7 +4902,7 @@
     <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9703380100679877</v>
+        <v>0.87672411207441991</v>
       </c>
       <c r="B131" s="2">
         <v>103</v>
@@ -4932,7 +4932,7 @@
     <row r="132" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89004104017526897</v>
+        <v>0.9585703731318086</v>
       </c>
       <c r="B132" s="2">
         <v>190</v>
@@ -4959,7 +4959,7 @@
     <row r="133" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.036485353123112E-2</v>
+        <v>0.46254313215039489</v>
       </c>
       <c r="B133" s="2">
         <v>165</v>
@@ -4986,7 +4986,7 @@
     <row r="134" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69812662849726081</v>
+        <v>0.63906650175256718</v>
       </c>
       <c r="B134" s="2">
         <v>210</v>
@@ -5010,7 +5010,7 @@
     <row r="135" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45095094033256988</v>
+        <v>0.49311875998182575</v>
       </c>
       <c r="B135" s="2">
         <v>211</v>
@@ -5037,7 +5037,7 @@
     <row r="136" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30828264835577668</v>
+        <v>0.81817983811725514</v>
       </c>
       <c r="B136" s="2">
         <v>186</v>
@@ -5058,7 +5058,7 @@
     <row r="137" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82878395357251533</v>
+        <v>0.46898817501421364</v>
       </c>
       <c r="B137" s="2">
         <v>191</v>
@@ -5082,7 +5082,7 @@
     <row r="138" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47435073443468334</v>
+        <v>7.5442009861849901E-2</v>
       </c>
       <c r="B138" s="2">
         <v>201</v>
@@ -5112,7 +5112,7 @@
     <row r="139" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59117031742479687</v>
+        <v>0.91902319428896018</v>
       </c>
       <c r="B139" s="2">
         <v>155</v>
@@ -5139,7 +5139,7 @@
     <row r="140" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29332657214479119</v>
+        <v>0.49720585121771377</v>
       </c>
       <c r="B140" s="2">
         <v>209</v>
@@ -5166,7 +5166,7 @@
     <row r="141" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6303693372311987</v>
+        <v>0.45835455602312924</v>
       </c>
       <c r="B141" s="2">
         <v>123</v>
@@ -5196,7 +5196,7 @@
     <row r="142" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27019114006767286</v>
+        <v>0.46728222506894879</v>
       </c>
       <c r="B142" s="2">
         <v>213</v>
@@ -5226,7 +5226,7 @@
     <row r="143" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57803697576318225</v>
+        <v>7.4004422068293052E-2</v>
       </c>
       <c r="B143" s="2">
         <v>134</v>
@@ -5247,7 +5247,7 @@
     <row r="144" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58500972427798004</v>
+        <v>0.99677572217603105</v>
       </c>
       <c r="B144" s="2">
         <v>119</v>
@@ -5274,7 +5274,7 @@
     <row r="145" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2625739657752284E-3</v>
+        <v>0.19823791844412719</v>
       </c>
       <c r="B145" s="2">
         <v>74</v>
@@ -5301,7 +5301,7 @@
     <row r="146" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49186981587436374</v>
+        <v>0.35624345459049567</v>
       </c>
       <c r="B146" s="2">
         <v>120</v>
@@ -5328,7 +5328,7 @@
     <row r="147" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52009518163730994</v>
+        <v>0.11553575209532485</v>
       </c>
       <c r="B147" s="2">
         <v>25</v>
@@ -5355,7 +5355,7 @@
     <row r="148" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29791365143959525</v>
+        <v>0.27529986798698292</v>
       </c>
       <c r="B148" s="2">
         <v>101</v>
@@ -5379,7 +5379,7 @@
     <row r="149" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42599759077064858</v>
+        <v>0.31958135357068085</v>
       </c>
       <c r="B149" s="2">
         <v>14</v>
@@ -5403,7 +5403,7 @@
     <row r="150" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69205191532746391</v>
+        <v>0.76749374944824011</v>
       </c>
       <c r="B150" s="2">
         <v>204</v>
@@ -5436,7 +5436,7 @@
     <row r="151" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1026285837458828</v>
+        <v>0.50911238759489807</v>
       </c>
       <c r="B151" s="2">
         <v>182</v>
@@ -5469,7 +5469,7 @@
     <row r="152" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63469160229766663</v>
+        <v>0.27893176110256512</v>
       </c>
       <c r="B152" s="2">
         <v>127</v>
@@ -5490,7 +5490,7 @@
     <row r="153" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71503944103793982</v>
+        <v>0.30071637958382125</v>
       </c>
       <c r="B153" s="2">
         <v>10</v>
@@ -5514,7 +5514,7 @@
     <row r="154" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36339955329521545</v>
+        <v>0.96661764014936402</v>
       </c>
       <c r="B154" s="2">
         <v>9</v>
@@ -5538,7 +5538,7 @@
     <row r="155" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76304491573191635</v>
+        <v>0.50156823686421437</v>
       </c>
       <c r="B155" s="2">
         <v>66</v>
@@ -5565,7 +5565,7 @@
     <row r="156" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15588580894301229</v>
+        <v>0.6650278916533946</v>
       </c>
       <c r="B156" s="2">
         <v>162</v>
@@ -5595,7 +5595,7 @@
     <row r="157" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8327870470344656</v>
+        <v>0.3624084371655415</v>
       </c>
       <c r="B157" s="2">
         <v>29</v>
@@ -5625,7 +5625,7 @@
     <row r="158" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55644626636924654</v>
+        <v>0.35227009779250062</v>
       </c>
       <c r="B158" s="2">
         <v>13</v>
@@ -5652,7 +5652,7 @@
     <row r="159" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16950247414257236</v>
+        <v>0.88219408277777056</v>
       </c>
       <c r="B159" s="2">
         <v>65</v>
@@ -5679,7 +5679,7 @@
     <row r="160" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73137414335880724</v>
+        <v>0.80459876395805341</v>
       </c>
       <c r="B160" s="2">
         <v>160</v>
@@ -5706,7 +5706,7 @@
     <row r="161" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34684604327764079</v>
+        <v>0.57486784077401831</v>
       </c>
       <c r="B161" s="2">
         <v>122</v>
@@ -5733,7 +5733,7 @@
     <row r="162" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76974151191627804</v>
+        <v>0.78996709070604254</v>
       </c>
       <c r="B162" s="2">
         <v>140</v>
@@ -5760,7 +5760,7 @@
     <row r="163" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62107721567188656</v>
+        <v>0.81034754980656742</v>
       </c>
       <c r="B163" s="2">
         <v>133</v>
@@ -5784,7 +5784,7 @@
     <row r="164" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25676480389677137</v>
+        <v>0.76012242442597255</v>
       </c>
       <c r="B164" s="2">
         <v>89</v>
@@ -5805,7 +5805,7 @@
     <row r="165" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83492649100759886</v>
+        <v>0.16920358724505435</v>
       </c>
       <c r="B165" s="2">
         <v>69</v>
@@ -5832,7 +5832,7 @@
     <row r="166" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0064187203757733E-3</v>
+        <v>5.9417690727718853E-2</v>
       </c>
       <c r="B166" s="2">
         <v>178</v>
@@ -5859,7 +5859,7 @@
     <row r="167" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7091359609613459E-3</v>
+        <v>0.34978473389153997</v>
       </c>
       <c r="B167" s="2">
         <v>24</v>
@@ -5886,7 +5886,7 @@
     <row r="168" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56341225988428811</v>
+        <v>0.27059864067098471</v>
       </c>
       <c r="B168" s="2">
         <v>27</v>
@@ -5907,7 +5907,7 @@
     <row r="169" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16831039771332179</v>
+        <v>0.60216541438548687</v>
       </c>
       <c r="B169" s="2">
         <v>145</v>
@@ -5931,7 +5931,7 @@
     <row r="170" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84684091055195065</v>
+        <v>0.17812951887461892</v>
       </c>
       <c r="B170" s="2">
         <v>147</v>
@@ -5955,7 +5955,7 @@
     <row r="171" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91138978245406144</v>
+        <v>0.31064530269530599</v>
       </c>
       <c r="B171" s="2">
         <v>138</v>
@@ -5988,7 +5988,7 @@
     <row r="172" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39752516416404671</v>
+        <v>0.43535800352515197</v>
       </c>
       <c r="B172" s="2">
         <v>166</v>
@@ -6015,7 +6015,7 @@
     <row r="173" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29961488735659059</v>
+        <v>0.81562852534718822</v>
       </c>
       <c r="B173" s="2">
         <v>12</v>
@@ -6042,7 +6042,7 @@
     <row r="174" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81150716131878686</v>
+        <v>0.80791920088361646</v>
       </c>
       <c r="B174" s="2">
         <v>149</v>
@@ -6069,7 +6069,7 @@
     <row r="175" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9357951481355995</v>
+        <v>0.12054219437935787</v>
       </c>
       <c r="B175" s="2">
         <v>130</v>
@@ -6093,7 +6093,7 @@
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33820464678487916</v>
+        <v>0.30704292157596458</v>
       </c>
       <c r="B176" s="2">
         <v>90</v>
@@ -6114,7 +6114,7 @@
     <row r="177" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26748471563031406</v>
+        <v>0.89016483310981653</v>
       </c>
       <c r="B177" s="2">
         <v>214</v>
@@ -6144,7 +6144,7 @@
     <row r="178" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53699122574880243</v>
+        <v>0.95086571524699592</v>
       </c>
       <c r="B178" s="2">
         <v>200</v>
@@ -6168,7 +6168,7 @@
     <row r="179" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95398045732873138</v>
+        <v>0.71181566275014485</v>
       </c>
       <c r="B179" s="2">
         <v>93</v>
@@ -6189,7 +6189,7 @@
     <row r="180" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11470657871547896</v>
+        <v>0.74885074253689321</v>
       </c>
       <c r="B180" s="2">
         <v>132</v>
@@ -6210,7 +6210,7 @@
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31537420536842486</v>
+        <v>0.49390560248507398</v>
       </c>
       <c r="B181" s="2">
         <v>80</v>
@@ -6234,7 +6234,7 @@
     <row r="182" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3443106891878992</v>
+        <v>0.24777242717952019</v>
       </c>
       <c r="B182" s="2">
         <v>194</v>
@@ -6258,7 +6258,7 @@
     <row r="183" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57015357619879437</v>
+        <v>0.15375978099320409</v>
       </c>
       <c r="B183" s="2">
         <v>106</v>
@@ -6282,7 +6282,7 @@
     <row r="184" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59379918291629263</v>
+        <v>0.39839388958463562</v>
       </c>
       <c r="B184" s="2">
         <v>150</v>
@@ -6309,7 +6309,7 @@
     <row r="185" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12874418772896257</v>
+        <v>0.64968377741762795</v>
       </c>
       <c r="B185" s="2">
         <v>94</v>
@@ -6342,7 +6342,7 @@
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49084813274156303</v>
+        <v>0.71180929201394649</v>
       </c>
       <c r="B186" s="2">
         <v>91</v>
@@ -6363,7 +6363,7 @@
     <row r="187" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16445755925795158</v>
+        <v>0.27557820118446197</v>
       </c>
       <c r="B187" s="2">
         <v>136</v>
@@ -6390,7 +6390,7 @@
     <row r="188" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6302062047432947</v>
+        <v>0.18388417517523847</v>
       </c>
       <c r="B188" s="2">
         <v>88</v>
@@ -6417,7 +6417,7 @@
     <row r="189" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75345741028125601</v>
+        <v>0.97680207516854545</v>
       </c>
       <c r="B189" s="2">
         <v>168</v>
@@ -6447,7 +6447,7 @@
     <row r="190" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75491272748631688</v>
+        <v>0.65823371175132073</v>
       </c>
       <c r="B190" s="2">
         <v>199</v>
@@ -6474,7 +6474,7 @@
     <row r="191" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87083420135076794</v>
+        <v>0.87120224792486822</v>
       </c>
       <c r="B191" s="2">
         <v>221</v>
@@ -6501,7 +6501,7 @@
     <row r="192" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43232009769248403</v>
+        <v>0.50939076093197977</v>
       </c>
       <c r="B192" s="2">
         <v>84</v>
@@ -6522,7 +6522,7 @@
     <row r="193" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81041162985517534</v>
+        <v>0.75246189601344704</v>
       </c>
       <c r="B193" s="2">
         <v>142</v>
@@ -6546,7 +6546,7 @@
     <row r="194" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A224" ca="1" si="3">RAND()</f>
-        <v>0.54250924765765485</v>
+        <v>0.8864414829505608</v>
       </c>
       <c r="B194" s="2">
         <v>64</v>
@@ -6576,7 +6576,7 @@
     <row r="195" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47659743993804071</v>
+        <v>0.10522967941501715</v>
       </c>
       <c r="B195" s="2">
         <v>179</v>
@@ -6606,7 +6606,7 @@
     <row r="196" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34340937371741131</v>
+        <v>0.20412779633748046</v>
       </c>
       <c r="B196" s="2">
         <v>203</v>
@@ -6630,7 +6630,7 @@
     <row r="197" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.389066286681088</v>
+        <v>0.28756883173350445</v>
       </c>
       <c r="B197" s="2">
         <v>19</v>
@@ -6657,7 +6657,7 @@
     <row r="198" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4779572855075065E-2</v>
+        <v>0.49151350703527497</v>
       </c>
       <c r="B198" s="2">
         <v>18</v>
@@ -6681,7 +6681,7 @@
     <row r="199" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83056078671514033</v>
+        <v>0.34605094799192315</v>
       </c>
       <c r="B199" s="2">
         <v>112</v>
@@ -6705,7 +6705,7 @@
     <row r="200" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94137364495101183</v>
+        <v>0.17967643743476802</v>
       </c>
       <c r="B200" s="2">
         <v>5</v>
@@ -6732,7 +6732,7 @@
     <row r="201" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98441099718766001</v>
+        <v>9.6099069480753974E-2</v>
       </c>
       <c r="B201" s="2">
         <v>17</v>
@@ -6759,7 +6759,7 @@
     <row r="202" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20527792488329288</v>
+        <v>0.46726792021729235</v>
       </c>
       <c r="B202" s="2">
         <v>96</v>
@@ -6780,7 +6780,7 @@
     <row r="203" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48774878039206904</v>
+        <v>0.23943502774314984</v>
       </c>
       <c r="B203" s="2">
         <v>217</v>
@@ -6804,7 +6804,7 @@
     <row r="204" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56394802799814847</v>
+        <v>0.87701071148369181</v>
       </c>
       <c r="B204" s="2">
         <v>207</v>
@@ -6828,7 +6828,7 @@
     <row r="205" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93970534429713193</v>
+        <v>0.14671756749551146</v>
       </c>
       <c r="B205" s="2">
         <v>215</v>
@@ -6852,7 +6852,7 @@
     <row r="206" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84546756021589586</v>
+        <v>0.81205914214167352</v>
       </c>
       <c r="B206" s="2">
         <v>164</v>
@@ -6879,7 +6879,7 @@
     <row r="207" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77547411974486202</v>
+        <v>0.68306937441463178</v>
       </c>
       <c r="B207" s="2">
         <v>144</v>
@@ -6912,7 +6912,7 @@
     <row r="208" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21932669616582146</v>
+        <v>8.9554138505553271E-2</v>
       </c>
       <c r="B208" s="2">
         <v>30</v>
@@ -6939,7 +6939,7 @@
     <row r="209" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27323109595160977</v>
+        <v>0.472917700946893</v>
       </c>
       <c r="B209" s="2">
         <v>37</v>
@@ -6966,7 +6966,7 @@
     <row r="210" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56078499159689477</v>
+        <v>0.50775295338470772</v>
       </c>
       <c r="B210" s="2">
         <v>139</v>
@@ -6993,7 +6993,7 @@
     <row r="211" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8300913239771832E-2</v>
+        <v>0.81843909121547265</v>
       </c>
       <c r="B211" s="2">
         <v>170</v>
@@ -7020,7 +7020,7 @@
     <row r="212" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13862858042448578</v>
+        <v>0.82677061364016924</v>
       </c>
       <c r="B212" s="2">
         <v>83</v>
@@ -7041,7 +7041,7 @@
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14485739531601327</v>
+        <v>0.45977356033819583</v>
       </c>
       <c r="B213" s="2">
         <v>47</v>
@@ -7062,7 +7062,7 @@
     <row r="214" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51899514613505249</v>
+        <v>0.68212884245053362</v>
       </c>
       <c r="B214" s="2">
         <v>71</v>
@@ -7086,7 +7086,7 @@
     <row r="215" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72671852906493184</v>
+        <v>0.9272844684943029</v>
       </c>
       <c r="B215" s="2">
         <v>110</v>
@@ -7113,7 +7113,7 @@
     <row r="216" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30930158758907844</v>
+        <v>9.2552431807081392E-3</v>
       </c>
       <c r="B216" s="2">
         <v>223</v>
@@ -7140,7 +7140,7 @@
     <row r="217" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.184751235442155E-2</v>
+        <v>0.58707651363202151</v>
       </c>
       <c r="B217" s="2">
         <v>116</v>
@@ -7167,7 +7167,7 @@
     <row r="218" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1123431505173158</v>
+        <v>0.64045710624285512</v>
       </c>
       <c r="B218" s="2">
         <v>55</v>
@@ -7191,7 +7191,7 @@
     <row r="219" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55729091244006035</v>
+        <v>0.28468461028304948</v>
       </c>
       <c r="B219" s="2">
         <v>8</v>
@@ -7212,7 +7212,7 @@
     <row r="220" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17045132938553409</v>
+        <v>0.53769849337550057</v>
       </c>
       <c r="B220" s="2">
         <v>3</v>
@@ -7242,7 +7242,7 @@
     <row r="221" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2344783908248953</v>
+        <v>0.84970663292394533</v>
       </c>
       <c r="B221" s="2">
         <v>219</v>
@@ -7266,7 +7266,7 @@
     <row r="222" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25157191379327493</v>
+        <v>0.68902253141499636</v>
       </c>
       <c r="B222" s="2">
         <v>62</v>
@@ -7296,7 +7296,7 @@
     <row r="223" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19443768074943113</v>
+        <v>0.35817470697122145</v>
       </c>
       <c r="B223" s="2">
         <v>79</v>
@@ -7323,7 +7323,7 @@
     <row r="224" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99783911055701291</v>
+        <v>0.53504376526111619</v>
       </c>
       <c r="B224" s="2">
         <v>78</v>
@@ -7555,7 +7555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+    <sheetView topLeftCell="A210" workbookViewId="0">
       <selection activeCell="A302" sqref="A225:XFD302"/>
     </sheetView>
   </sheetViews>
